--- a/xlsx/国家公园_intext.xlsx
+++ b/xlsx/国家公园_intext.xlsx
@@ -15,461 +15,461 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
   <si>
     <t>国家公园</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>瑞典</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%8B%92%E5%85%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>萨勒克国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
+  </si>
+  <si>
+    <t>阿根廷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6</t>
+  </si>
+  <si>
+    <t>自然</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%87%AA%E7%84%B6%E4%BF%9D%E6%8A%A4%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>世界自然保护联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%8A%A4%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>保护区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E7%9F%B3%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
+  </si>
+  <si>
+    <t>黄石国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E4%BF%9D%E6%8A%A4%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>自然保护区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%87%AA%E7%84%B6%E4%BF%9D%E8%AD%B7%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%BE%B7%E9%87%8C</t>
+  </si>
+  <si>
+    <t>新德里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中华民国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>中华民国国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%97%A5%E6%B2%BB%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>台湾日治时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
+  </si>
+  <si>
+    <t>台湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8F%B0%E7%81%A3</t>
+  </si>
+  <si>
+    <t>北台湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%B0%E7%81%A3</t>
+  </si>
+  <si>
+    <t>中台湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%B1%AF%E5%9C%8B%E7%AB%8B%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>大屯国立公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E9%AB%98%E5%A4%AA%E9%AD%AF%E9%96%A3%E5%9C%8B%E7%AB%8B%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>次高太鲁阁国立公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>雪山</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%AD%AF%E9%96%A3</t>
+  </si>
+  <si>
+    <t>太鲁阁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%AB%98%E9%98%BF%E9%87%8C%E5%B1%B1%E5%9C%8B%E7%AB%8B%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>新高阿里山国立公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>玉山</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%E5%B1%B1%E5%B1%B1%E8%84%88</t>
+  </si>
+  <si>
+    <t>阿里山山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%BE%E4%B8%81%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>垦丁国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%8F%E6%9D%B1%E7%B8%A3</t>
+  </si>
+  <si>
+    <t>屏东县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>玉山国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%8A%95%E7%B8%A3</t>
+  </si>
+  <si>
+    <t>南投县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%98%89%E7%BE%A9%E7%B8%A3</t>
+  </si>
+  <si>
+    <t>嘉义县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E8%93%AE%E7%B8%A3</t>
+  </si>
+  <si>
+    <t>花莲县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9B%84%E5%B8%82</t>
+  </si>
+  <si>
+    <t>高雄市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%99%BD%E6%98%8E%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>阳明山国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E5%B8%82</t>
+  </si>
+  <si>
+    <t>新北市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%8C%97%E5%B8%82</t>
+  </si>
+  <si>
+    <t>台北市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%AD%AF%E9%96%A3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>太鲁阁国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E4%B8%AD%E5%B8%82</t>
+  </si>
+  <si>
+    <t>台中市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%9C%B8%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>雪霸国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%97%E6%A0%97%E7%B8%A3</t>
+  </si>
+  <si>
+    <t>苗栗县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%AB%B9%E7%B8%A3</t>
+  </si>
+  <si>
+    <t>新竹县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>金门国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E7%B8%A3</t>
+  </si>
+  <si>
+    <t>金门县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B2%99%E7%92%B0%E7%A4%81%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>东沙环礁国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92%E7%AE%A1%E7%90%86%E8%99%95</t>
+  </si>
+  <si>
+    <t>海洋国家公园管理处</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>南海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B2%99%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>东沙群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B1%9F%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>台江国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%8D%97%E5%B8%82</t>
+  </si>
+  <si>
+    <t>台南市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%8E%E6%B9%96%E5%8D%97%E6%96%B9%E5%9B%9B%E5%B3%B6%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>澎湖南方四岛国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%8E%E6%B9%96%E7%B8%A3</t>
+  </si>
+  <si>
+    <t>澎湖县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>立法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A3%BD%E5%B1%B1%E5%9C%8B%E5%AE%B6%E8%87%AA%E7%84%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>寿山国家自然公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
+  </si>
+  <si>
+    <t>中华人民共和国国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>中华人民共和国政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家公园列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>美国国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>加拿大国家公园列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E5%AE%B6%E7%B4%9A%E9%A2%A8%E6%99%AF%E5%90%8D%E5%8B%9D%E5%8D%80</t>
+  </si>
+  <si>
+    <t>中国国家级风景名胜区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9B%BD%E7%AB%8B%E5%85%AC%E5%9B%AD</t>
+  </si>
+  <si>
+    <t>日本国立公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9B%BD%E5%AE%9A%E5%85%AC%E5%9B%AD</t>
+  </si>
+  <si>
+    <t>日本国定公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E5%9C%8B%E7%AB%8B%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>韩国国立公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E8%87%AA%E7%84%B6%E5%85%AC%E5%9B%AD</t>
+  </si>
+  <si>
+    <t>朝鲜自然公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
+  </si>
+  <si>
+    <t>蒙古国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
+  </si>
+  <si>
+    <t>越南国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
+  </si>
+  <si>
+    <t>马来西亚国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E8%87%AA%E7%84%B6%E4%BF%9D%E6%8A%A4%E5%8C%BA%E5%9F%9F</t>
+  </si>
+  <si>
+    <t>新加坡自然保护区域</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%94%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
+  </si>
+  <si>
+    <t>吉尔吉斯斯坦国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
+  </si>
+  <si>
+    <t>俄罗斯国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/IUCN</t>
+  </si>
+  <si>
+    <t>IUCN</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BF%9D%E8%AD%B7%E5%8D%80%E5%A7%94%E5%93%A1%E6%9C%83</t>
+  </si>
+  <si>
+    <t>世界保护区委员会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%92%E9%87%8E%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>荒野区</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_国家公园</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%8B%92%E5%85%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>薩勒克國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6</t>
-  </si>
-  <si>
-    <t>自然</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%87%AA%E7%84%B6%E4%BF%9D%E6%8A%A4%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>世界自然保护联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%8A%A4%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>保护区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E7%9F%B3%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
-  </si>
-  <si>
-    <t>黄石国家公园</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E4%BF%9D%E6%8A%A4%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>自然保护区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%87%AA%E7%84%B6%E4%BF%9D%E8%AD%B7%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>世界自然保護聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%BE%B7%E9%87%8C</t>
-  </si>
-  <si>
-    <t>新德里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中華民國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>中華民國國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%97%A5%E6%B2%BB%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>台灣日治時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
-  </si>
-  <si>
-    <t>台灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8F%B0%E7%81%A3</t>
-  </si>
-  <si>
-    <t>北台灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%B0%E7%81%A3</t>
-  </si>
-  <si>
-    <t>中台灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%B1%AF%E5%9C%8B%E7%AB%8B%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>大屯國立公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E9%AB%98%E5%A4%AA%E9%AD%AF%E9%96%A3%E5%9C%8B%E7%AB%8B%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>次高太魯閣國立公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>雪山</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%AD%AF%E9%96%A3</t>
-  </si>
-  <si>
-    <t>太魯閣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%AB%98%E9%98%BF%E9%87%8C%E5%B1%B1%E5%9C%8B%E7%AB%8B%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>新高阿里山國立公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>玉山</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%E5%B1%B1%E5%B1%B1%E8%84%88</t>
-  </si>
-  <si>
-    <t>阿里山山脈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%BE%E4%B8%81%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>墾丁國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%8F%E6%9D%B1%E7%B8%A3</t>
-  </si>
-  <si>
-    <t>屏東縣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>玉山國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%8A%95%E7%B8%A3</t>
-  </si>
-  <si>
-    <t>南投縣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%98%89%E7%BE%A9%E7%B8%A3</t>
-  </si>
-  <si>
-    <t>嘉義縣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E8%93%AE%E7%B8%A3</t>
-  </si>
-  <si>
-    <t>花蓮縣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9B%84%E5%B8%82</t>
-  </si>
-  <si>
-    <t>高雄市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%BD%E6%98%8E%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>陽明山國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E5%B8%82</t>
-  </si>
-  <si>
-    <t>新北市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%8C%97%E5%B8%82</t>
-  </si>
-  <si>
-    <t>台北市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%AD%AF%E9%96%A3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>太魯閣國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E4%B8%AD%E5%B8%82</t>
-  </si>
-  <si>
-    <t>台中市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%9C%B8%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>雪霸國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%97%E6%A0%97%E7%B8%A3</t>
-  </si>
-  <si>
-    <t>苗栗縣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%AB%B9%E7%B8%A3</t>
-  </si>
-  <si>
-    <t>新竹縣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>金門國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E7%B8%A3</t>
-  </si>
-  <si>
-    <t>金門縣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B2%99%E7%92%B0%E7%A4%81%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>東沙環礁國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92%E7%AE%A1%E7%90%86%E8%99%95</t>
-  </si>
-  <si>
-    <t>海洋國家公園管理處</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>南海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B2%99%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>東沙群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B1%9F%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>台江國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%8D%97%E5%B8%82</t>
-  </si>
-  <si>
-    <t>台南市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%8E%E6%B9%96%E5%8D%97%E6%96%B9%E5%9B%9B%E5%B3%B6%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>澎湖南方四島國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%8E%E6%B9%96%E7%B8%A3</t>
-  </si>
-  <si>
-    <t>澎湖縣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>立法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A3%BD%E5%B1%B1%E5%9C%8B%E5%AE%B6%E8%87%AA%E7%84%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>壽山國家自然公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
-  </si>
-  <si>
-    <t>中华人民共和国国家公园</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>中华人民共和国政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>国家公园列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>美國國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>加拿大国家公园列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E5%AE%B6%E7%B4%9A%E9%A2%A8%E6%99%AF%E5%90%8D%E5%8B%9D%E5%8D%80</t>
-  </si>
-  <si>
-    <t>中國國家級風景名勝區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9B%BD%E7%AB%8B%E5%85%AC%E5%9B%AD</t>
-  </si>
-  <si>
-    <t>日本国立公园</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9B%BD%E5%AE%9A%E5%85%AC%E5%9B%AD</t>
-  </si>
-  <si>
-    <t>日本国定公园</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E5%9C%8B%E7%AB%8B%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>韓國國立公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E8%87%AA%E7%84%B6%E5%85%AC%E5%9B%AD</t>
-  </si>
-  <si>
-    <t>朝鲜自然公园</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
-  </si>
-  <si>
-    <t>蒙古国家公园</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
-  </si>
-  <si>
-    <t>越南国家公园</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
-  </si>
-  <si>
-    <t>马来西亚国家公园</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E8%87%AA%E7%84%B6%E4%BF%9D%E6%8A%A4%E5%8C%BA%E5%9F%9F</t>
-  </si>
-  <si>
-    <t>新加坡自然保护区域</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦国家公园</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%94%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦国家公园</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
-  </si>
-  <si>
-    <t>俄罗斯国家公园</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/IUCN</t>
-  </si>
-  <si>
-    <t>IUCN</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BF%9D%E8%AD%B7%E5%8D%80%E5%A7%94%E5%93%A1%E6%9C%83</t>
-  </si>
-  <si>
-    <t>世界保護區委員會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%92%E9%87%8E%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>荒野区</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%BA%AA%E5%BF%B5%E7%89%A9</t>
   </si>
   <si>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -497,16 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -855,7 +846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1196,7 +1187,7 @@
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1222,10 +1213,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1251,10 +1242,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1280,10 +1271,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>6</v>
@@ -1309,10 +1300,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1338,10 +1329,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1367,10 +1358,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -1396,10 +1387,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>6</v>
@@ -1425,10 +1416,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1454,10 +1445,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1483,10 +1474,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1512,10 +1503,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1541,10 +1532,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1570,10 +1561,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1599,10 +1590,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1628,10 +1619,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -1657,10 +1648,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -1686,10 +1677,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -1715,10 +1706,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1744,10 +1735,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -1773,10 +1764,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -1802,10 +1793,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1831,10 +1822,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -1860,10 +1851,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -1889,10 +1880,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -1918,10 +1909,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1947,10 +1938,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1976,10 +1967,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2005,10 +1996,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2034,10 +2025,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2063,10 +2054,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2092,10 +2083,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2121,10 +2112,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2150,10 +2141,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2179,10 +2170,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2208,10 +2199,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -2237,10 +2228,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2266,10 +2257,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2295,10 +2286,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2324,10 +2315,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2353,10 +2344,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2382,10 +2373,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2411,10 +2402,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2440,10 +2431,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2469,10 +2460,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2498,10 +2489,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2527,10 +2518,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -2556,10 +2547,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2585,10 +2576,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2614,10 +2605,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2643,10 +2634,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2672,10 +2663,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2701,10 +2692,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2730,10 +2721,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2759,10 +2750,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2788,10 +2779,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2817,10 +2808,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2846,10 +2837,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2875,10 +2866,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2904,10 +2895,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2933,10 +2924,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2962,10 +2953,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>10</v>
@@ -2991,10 +2982,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3020,10 +3011,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3049,13 +3040,13 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -3078,10 +3069,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3107,13 +3098,13 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -3136,13 +3127,13 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -3165,10 +3156,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3194,47 +3185,18 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" t="n">
-        <v>81</v>
-      </c>
-      <c r="E82" t="s">
-        <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>163</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" t="s">
-        <v>4</v>
-      </c>
-      <c r="I82" t="n">
         <v>3</v>
       </c>
     </row>
